--- a/Mifos Automation Excels/Client/4461-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery2weeksonWednesday-DisburseJLGloanonmeetingdatewithevery1weeksrepayment.xlsx
+++ b/Mifos Automation Excels/Client/4461-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery2weeksonWednesday-DisburseJLGloanonmeetingdatewithevery1weeksrepayment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>submittedon</t>
   </si>
@@ -312,12 +317,24 @@
   </si>
   <si>
     <t>error.msg.calendar.loanapplication.repayment.interval.not.the.same.as.meeting.frequency</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>selectRepeatevery1</t>
+  </si>
+  <si>
+    <t>selectweekdaysfriday1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -440,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -499,9 +516,6 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -512,6 +526,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,9 +610,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,6 +662,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -896,29 +947,29 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -926,7 +977,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -934,25 +985,33 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="30">
+        <v>98</v>
+      </c>
+      <c r="B15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1076,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1245,7 +1304,7 @@
       <c r="A12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1460,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1530,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
@@ -1511,17 +1570,18 @@
       <c r="M1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="26">
@@ -1548,8 +1608,9 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -1585,14 +1646,15 @@
       <c r="M3" s="28">
         <v>0</v>
       </c>
-      <c r="N3" s="28">
-        <v>0</v>
-      </c>
-      <c r="P3" s="29">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29">
         <v>1693.69</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1628,14 +1690,15 @@
       <c r="M4" s="28">
         <v>0</v>
       </c>
-      <c r="N4" s="28">
-        <v>0</v>
-      </c>
-      <c r="P4" s="29">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29">
         <v>1693.69</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -1671,14 +1734,15 @@
       <c r="M5" s="28">
         <v>0</v>
       </c>
-      <c r="N5" s="28">
-        <v>0</v>
-      </c>
-      <c r="P5" s="29">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="29">
         <v>1693.69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -1714,14 +1778,15 @@
       <c r="M6" s="28">
         <v>0</v>
       </c>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="29">
         <v>1693.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -1757,14 +1822,15 @@
       <c r="M7" s="28">
         <v>0</v>
       </c>
-      <c r="N7" s="28">
-        <v>0</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
         <v>1693.69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1800,10 +1866,11 @@
       <c r="M8" s="28">
         <v>0</v>
       </c>
-      <c r="N8" s="28">
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
+      <c r="N8" s="28"/>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="29">
         <v>1688.1</v>
       </c>
     </row>
